--- a/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2161F8A-6886-4609-AE55-AF3C0B4424BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CE92DE-EEB5-406E-8492-FC36C1E26D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5204BF32-D086-4ADF-932B-91817C6A8F81}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F582A1F-4123-4C9A-B252-6FBD0828AA8B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>8,56%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -104,19 +104,19 @@
     <t>13,65%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>11,48%</t>
@@ -125,7 +125,7 @@
     <t>7,56%</t>
   </si>
   <si>
-    <t>16,76%</t>
+    <t>16,08%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -134,28 +134,28 @@
     <t>77,79%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>79,35%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>6,45%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -251,28 +251,28 @@
     <t>23,3%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -281,541 +281,538 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>8,52%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,07%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AC37ED-C1F5-4E11-ACDD-1BCE6F442FE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985A960A-3DDC-4C37-9685-E61FF650C7C7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2005,10 +2002,10 @@
         <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2020,13 @@
         <v>10221</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2038,13 +2035,13 @@
         <v>9142</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2053,13 +2050,13 @@
         <v>19363</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2071,13 @@
         <v>64576</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>211</v>
@@ -2089,13 +2086,13 @@
         <v>91117</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>308</v>
@@ -2104,13 +2101,13 @@
         <v>155694</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,7 +2163,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2178,13 +2175,13 @@
         <v>1658</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2193,13 +2190,13 @@
         <v>1270</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2208,13 +2205,13 @@
         <v>2929</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2226,13 @@
         <v>5007</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2244,13 +2241,13 @@
         <v>11568</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -2259,13 +2256,13 @@
         <v>16575</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2277,13 @@
         <v>31666</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>135</v>
@@ -2295,13 +2292,13 @@
         <v>52642</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -2310,13 +2307,13 @@
         <v>84309</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2369,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2384,13 +2381,13 @@
         <v>13807</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2399,13 +2396,13 @@
         <v>16573</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -2414,13 +2411,13 @@
         <v>30380</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2432,13 @@
         <v>6957</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -2450,13 +2447,13 @@
         <v>9137</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -2465,13 +2462,13 @@
         <v>16094</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2483,13 @@
         <v>42420</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -2501,13 +2498,13 @@
         <v>44143</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -2516,13 +2513,13 @@
         <v>86563</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,7 +2575,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2590,13 +2587,13 @@
         <v>4815</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -2605,13 +2602,13 @@
         <v>18062</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -2620,13 +2617,13 @@
         <v>22877</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2638,13 @@
         <v>7663</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2656,13 +2653,13 @@
         <v>10058</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -2671,13 +2668,13 @@
         <v>17721</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2689,13 @@
         <v>118362</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>199</v>
@@ -2707,13 +2704,13 @@
         <v>230068</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>353</v>
@@ -2722,13 +2719,13 @@
         <v>348429</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,7 +2781,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2796,13 +2793,13 @@
         <v>2265</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -2811,13 +2808,13 @@
         <v>6441</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -2826,13 +2823,13 @@
         <v>8705</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2844,13 @@
         <v>8926</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>42</v>
@@ -2862,13 +2859,13 @@
         <v>28997</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -2877,13 +2874,13 @@
         <v>37923</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2895,13 @@
         <v>156605</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>292</v>
@@ -2913,10 +2910,10 @@
         <v>187605</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>230</v>
@@ -3002,13 +2999,13 @@
         <v>53979</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>177</v>
@@ -3017,13 +3014,13 @@
         <v>95050</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="M36" s="7">
         <v>267</v>
@@ -3032,13 +3029,13 @@
         <v>149030</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3050,13 @@
         <v>53370</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>191</v>
@@ -3068,13 +3065,13 @@
         <v>102787</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>271</v>
@@ -3083,13 +3080,13 @@
         <v>156157</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3101,13 @@
         <v>585877</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>1338</v>
@@ -3119,13 +3116,13 @@
         <v>827711</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>2190</v>
@@ -3134,13 +3131,13 @@
         <v>1413588</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3193,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CE92DE-EEB5-406E-8492-FC36C1E26D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA0447C-EA4E-4998-91AA-7A6DF279BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F582A1F-4123-4C9A-B252-6FBD0828AA8B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A05EF684-42B5-4273-B8A5-1E4ACD0785C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985A960A-3DDC-4C37-9685-E61FF650C7C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE98A9E-56DF-4A51-B71A-81CE1866DA18}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA0447C-EA4E-4998-91AA-7A6DF279BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E8C7A9-B05E-4A57-A7BF-1EE1C8B000FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A05EF684-42B5-4273-B8A5-1E4ACD0785C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B71740EE-E41F-47C6-B186-32B5098404D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="261">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>8,56%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -104,715 +104,718 @@
     <t>13,65%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>6,23%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>7,07%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE98A9E-56DF-4A51-B71A-81CE1866DA18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA0A3DC-943D-4C83-A43C-552AAE80D2DF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2002,10 +2005,10 @@
         <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2023,13 @@
         <v>10221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2035,13 +2038,13 @@
         <v>9142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2050,13 +2053,13 @@
         <v>19363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2074,13 @@
         <v>64576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>211</v>
@@ -2086,13 +2089,13 @@
         <v>91117</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>308</v>
@@ -2101,13 +2104,13 @@
         <v>155694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,7 +2166,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2175,13 +2178,13 @@
         <v>1658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2190,13 +2193,13 @@
         <v>1270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2205,13 +2208,13 @@
         <v>2929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2229,13 @@
         <v>5007</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2241,13 +2244,13 @@
         <v>11568</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -2256,13 +2259,13 @@
         <v>16575</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2280,13 @@
         <v>31666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>135</v>
@@ -2292,13 +2295,13 @@
         <v>52642</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -2307,13 +2310,13 @@
         <v>84309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2372,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2381,13 +2384,13 @@
         <v>13807</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2396,13 +2399,13 @@
         <v>16573</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -2411,13 +2414,13 @@
         <v>30380</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2435,13 @@
         <v>6957</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -2447,13 +2450,13 @@
         <v>9137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -2462,13 +2465,13 @@
         <v>16094</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2486,13 @@
         <v>42420</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -2498,13 +2501,13 @@
         <v>44143</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -2513,13 +2516,13 @@
         <v>86563</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,7 +2578,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2587,13 +2590,13 @@
         <v>4815</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -2602,13 +2605,13 @@
         <v>18062</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -2617,13 +2620,13 @@
         <v>22877</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2641,13 @@
         <v>7663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2653,13 +2656,13 @@
         <v>10058</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -2668,13 +2671,13 @@
         <v>17721</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2692,13 @@
         <v>118362</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>199</v>
@@ -2704,13 +2707,13 @@
         <v>230068</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>353</v>
@@ -2719,13 +2722,13 @@
         <v>348429</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2784,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2793,13 +2796,13 @@
         <v>2265</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -2808,13 +2811,13 @@
         <v>6441</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -2823,13 +2826,13 @@
         <v>8705</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2847,13 @@
         <v>8926</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>42</v>
@@ -2859,13 +2862,13 @@
         <v>28997</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -2874,13 +2877,13 @@
         <v>37923</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2898,13 @@
         <v>156605</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>292</v>
@@ -2910,10 +2913,10 @@
         <v>187605</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>230</v>
@@ -2999,13 +3002,13 @@
         <v>53979</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>177</v>
@@ -3014,13 +3017,13 @@
         <v>95050</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>267</v>
@@ -3029,13 +3032,13 @@
         <v>149030</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3053,13 @@
         <v>53370</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>191</v>
@@ -3065,13 +3068,13 @@
         <v>102787</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>271</v>
@@ -3080,13 +3083,13 @@
         <v>156157</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3104,13 @@
         <v>585877</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>1338</v>
@@ -3116,13 +3119,13 @@
         <v>827711</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>2190</v>
@@ -3131,13 +3134,13 @@
         <v>1413588</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3196,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E8C7A9-B05E-4A57-A7BF-1EE1C8B000FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE3280F-CC3B-4207-863C-B26B5DB1BD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B71740EE-E41F-47C6-B186-32B5098404D4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F9D2F242-3C98-42EE-81C0-94D6EA368408}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="258">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -71,751 +71,742 @@
     <t>No puede</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA0A3DC-943D-4C83-A43C-552AAE80D2DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA8B2B6-31EC-47C6-8107-6787FAFD780A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1351,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>4446</v>
+        <v>4742</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1366,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>6020</v>
+        <v>6047</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1381,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>10466</v>
+        <v>10789</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1402,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>7087</v>
+        <v>7484</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1417,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6012</v>
+        <v>6055</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1432,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>13099</v>
+        <v>13539</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1453,7 +1444,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="7">
-        <v>40387</v>
+        <v>43675</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1468,7 +1459,7 @@
         <v>110</v>
       </c>
       <c r="I6" s="7">
-        <v>50187</v>
+        <v>51307</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1483,7 +1474,7 @@
         <v>175</v>
       </c>
       <c r="N6" s="7">
-        <v>90574</v>
+        <v>94982</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1504,7 +1495,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1519,7 +1510,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1534,7 +1525,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1557,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5505</v>
+        <v>5121</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1572,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>19893</v>
+        <v>17626</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1587,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="N8" s="7">
-        <v>25398</v>
+        <v>22747</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1608,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>4855</v>
+        <v>4475</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1623,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>16408</v>
+        <v>14910</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1638,7 +1629,7 @@
         <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>21263</v>
+        <v>19384</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1659,7 +1650,7 @@
         <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>74997</v>
+        <v>70254</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1674,7 +1665,7 @@
         <v>168</v>
       </c>
       <c r="I10" s="7">
-        <v>105057</v>
+        <v>96456</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1689,7 +1680,7 @@
         <v>251</v>
       </c>
       <c r="N10" s="7">
-        <v>180054</v>
+        <v>166710</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1710,7 +1701,7 @@
         <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>85358</v>
+        <v>79850</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1725,7 +1716,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1740,7 +1731,7 @@
         <v>317</v>
       </c>
       <c r="N11" s="7">
-        <v>226715</v>
+        <v>208842</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1763,7 +1754,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="7">
-        <v>18084</v>
+        <v>16932</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1778,7 +1769,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="7">
-        <v>16594</v>
+        <v>15092</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1793,7 +1784,7 @@
         <v>60</v>
       </c>
       <c r="N12" s="7">
-        <v>34678</v>
+        <v>32024</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1814,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2654</v>
+        <v>2534</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1829,7 +1820,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>11465</v>
+        <v>10516</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1844,7 +1835,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>14119</v>
+        <v>13049</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1865,7 +1856,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="7">
-        <v>56863</v>
+        <v>54024</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1880,7 +1871,7 @@
         <v>117</v>
       </c>
       <c r="I14" s="7">
-        <v>66892</v>
+        <v>61817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1895,7 +1886,7 @@
         <v>206</v>
       </c>
       <c r="N14" s="7">
-        <v>123755</v>
+        <v>115841</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1916,7 +1907,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1931,7 +1922,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1946,7 +1937,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1969,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3400</v>
+        <v>3220</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -1984,7 +1975,7 @@
         <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>10196</v>
+        <v>9477</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -1999,7 +1990,7 @@
         <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>13596</v>
+        <v>12697</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -2020,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>10221</v>
+        <v>9599</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2035,7 +2026,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>9142</v>
+        <v>8609</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2050,7 +2041,7 @@
         <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>19363</v>
+        <v>18208</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
@@ -2071,7 +2062,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="7">
-        <v>64576</v>
+        <v>61265</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -2086,7 +2077,7 @@
         <v>211</v>
       </c>
       <c r="I18" s="7">
-        <v>91117</v>
+        <v>85550</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -2101,7 +2092,7 @@
         <v>308</v>
       </c>
       <c r="N18" s="7">
-        <v>155694</v>
+        <v>146815</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>122</v>
@@ -2122,7 +2113,7 @@
         <v>117</v>
       </c>
       <c r="D19" s="7">
-        <v>78197</v>
+        <v>74084</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2137,7 +2128,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2152,7 +2143,7 @@
         <v>373</v>
       </c>
       <c r="N19" s="7">
-        <v>188653</v>
+        <v>177720</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2175,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>1658</v>
+        <v>1490</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>126</v>
@@ -2190,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1270</v>
+        <v>1137</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>129</v>
@@ -2205,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>2929</v>
+        <v>2627</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>132</v>
@@ -2226,46 +2217,46 @@
         <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>5007</v>
+        <v>4513</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
       </c>
       <c r="I21" s="7">
-        <v>11568</v>
+        <v>10270</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
       </c>
       <c r="N21" s="7">
-        <v>16575</v>
+        <v>14783</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,46 +2268,46 @@
         <v>59</v>
       </c>
       <c r="D22" s="7">
-        <v>31666</v>
+        <v>28813</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>135</v>
       </c>
       <c r="I22" s="7">
-        <v>52642</v>
+        <v>47839</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
       </c>
       <c r="N22" s="7">
-        <v>84309</v>
+        <v>76652</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2319,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2343,7 +2334,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2358,7 +2349,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2372,7 +2363,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2381,46 +2372,46 @@
         <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>13807</v>
+        <v>13140</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
       </c>
       <c r="I24" s="7">
-        <v>16573</v>
+        <v>15501</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
       </c>
       <c r="N24" s="7">
-        <v>30380</v>
+        <v>28641</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,46 +2423,46 @@
         <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>6957</v>
+        <v>6656</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>9137</v>
+        <v>8589</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>40</v>
+      </c>
+      <c r="N25" s="7">
+        <v>15245</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M25" s="7">
-        <v>40</v>
-      </c>
-      <c r="N25" s="7">
-        <v>16094</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,46 +2474,46 @@
         <v>89</v>
       </c>
       <c r="D26" s="7">
-        <v>42420</v>
+        <v>40465</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
       </c>
       <c r="I26" s="7">
-        <v>44143</v>
+        <v>41168</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
       </c>
       <c r="N26" s="7">
-        <v>86563</v>
+        <v>81633</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2525,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2549,7 +2540,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2564,7 +2555,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2578,7 +2569,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2587,46 +2578,46 @@
         <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>4815</v>
+        <v>4574</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
       </c>
       <c r="I28" s="7">
-        <v>18062</v>
+        <v>15298</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
       </c>
       <c r="N28" s="7">
-        <v>22877</v>
+        <v>19872</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,46 +2629,46 @@
         <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>7663</v>
+        <v>6943</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
       </c>
       <c r="I29" s="7">
-        <v>10058</v>
+        <v>9203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
       </c>
       <c r="N29" s="7">
-        <v>17721</v>
+        <v>16146</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,46 +2680,46 @@
         <v>154</v>
       </c>
       <c r="D30" s="7">
-        <v>118362</v>
+        <v>111737</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>199</v>
       </c>
       <c r="I30" s="7">
-        <v>230068</v>
+        <v>314088</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>353</v>
       </c>
       <c r="N30" s="7">
-        <v>348429</v>
+        <v>425826</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2731,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2755,7 +2746,7 @@
         <v>241</v>
       </c>
       <c r="I31" s="7">
-        <v>258188</v>
+        <v>338589</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -2770,7 +2761,7 @@
         <v>409</v>
       </c>
       <c r="N31" s="7">
-        <v>389028</v>
+        <v>461844</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2784,7 +2775,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2793,46 +2784,46 @@
         <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>2265</v>
+        <v>1993</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
       </c>
       <c r="I32" s="7">
-        <v>6441</v>
+        <v>5217</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
       </c>
       <c r="N32" s="7">
-        <v>8705</v>
+        <v>7210</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,46 +2835,46 @@
         <v>12</v>
       </c>
       <c r="D33" s="7">
-        <v>8926</v>
+        <v>7478</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>42</v>
       </c>
       <c r="I33" s="7">
-        <v>28997</v>
+        <v>23306</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
       </c>
       <c r="N33" s="7">
-        <v>37923</v>
+        <v>30784</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,46 +2886,46 @@
         <v>216</v>
       </c>
       <c r="D34" s="7">
-        <v>156605</v>
+        <v>135769</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>292</v>
       </c>
       <c r="I34" s="7">
-        <v>187605</v>
+        <v>158119</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>508</v>
       </c>
       <c r="N34" s="7">
-        <v>344209</v>
+        <v>293887</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,7 +2937,7 @@
         <v>232</v>
       </c>
       <c r="D35" s="7">
-        <v>167795</v>
+        <v>145239</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2961,7 +2952,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -2976,7 +2967,7 @@
         <v>575</v>
       </c>
       <c r="N35" s="7">
-        <v>390838</v>
+        <v>331881</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -2999,46 +2990,46 @@
         <v>90</v>
       </c>
       <c r="D36" s="7">
-        <v>53979</v>
+        <v>51212</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H36" s="7">
         <v>177</v>
       </c>
       <c r="I36" s="7">
-        <v>95050</v>
+        <v>85395</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>267</v>
       </c>
       <c r="N36" s="7">
-        <v>149030</v>
+        <v>136607</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,46 +3041,46 @@
         <v>80</v>
       </c>
       <c r="D37" s="7">
-        <v>53370</v>
+        <v>49681</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>191</v>
       </c>
       <c r="I37" s="7">
-        <v>102787</v>
+        <v>91457</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>271</v>
       </c>
       <c r="N37" s="7">
-        <v>156157</v>
+        <v>141138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,46 +3092,46 @@
         <v>852</v>
       </c>
       <c r="D38" s="7">
-        <v>585877</v>
+        <v>546003</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H38" s="7">
         <v>1338</v>
       </c>
       <c r="I38" s="7">
-        <v>827711</v>
+        <v>856345</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>2190</v>
       </c>
       <c r="N38" s="7">
-        <v>1413588</v>
+        <v>1402348</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3143,7 @@
         <v>1022</v>
       </c>
       <c r="D39" s="7">
-        <v>693226</v>
+        <v>646896</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3167,7 +3158,7 @@
         <v>1706</v>
       </c>
       <c r="I39" s="7">
-        <v>1025548</v>
+        <v>1033197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3182,7 +3173,7 @@
         <v>2728</v>
       </c>
       <c r="N39" s="7">
-        <v>1718774</v>
+        <v>1680093</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3196,7 +3187,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
